--- a/data-raw/data-tidy/tech-yearbook/part08-output/04-teckmarket-push/funds-2013.xlsx
+++ b/data-raw/data-tidy/tech-yearbook/part08-output/04-teckmarket-push/funds-2013.xlsx
@@ -500,7 +500,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>130.8252684634</v>
+        <v>1308252.684634</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -520,7 +520,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>2851.7239477128</v>
+        <v>28517239.477128</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -540,7 +540,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>44.6885284433</v>
+        <v>446885.284433</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -560,7 +560,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>99.9936300062</v>
+        <v>999936.300062</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -580,7 +580,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>529.3935637391</v>
+        <v>5293935.637391</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -600,7 +600,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>7.3449015375</v>
+        <v>73449.015375</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -620,7 +620,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>18.3971916408</v>
+        <v>183971.916408</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -640,7 +640,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>3.869288784</v>
+        <v>38692.88784</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -660,7 +660,7 @@
         <v>8</v>
       </c>
       <c r="D10" t="n">
-        <v>31.5580760169</v>
+        <v>315580.760169</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -680,7 +680,7 @@
         <v>8</v>
       </c>
       <c r="D11" t="n">
-        <v>40.2405864364</v>
+        <v>402405.864364</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -700,7 +700,7 @@
         <v>8</v>
       </c>
       <c r="D12" t="n">
-        <v>101.7746660649</v>
+        <v>1017746.660649</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -720,7 +720,7 @@
         <v>8</v>
       </c>
       <c r="D13" t="n">
-        <v>397.6158099323</v>
+        <v>3976158.099323</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -740,7 +740,7 @@
         <v>8</v>
       </c>
       <c r="D14" t="n">
-        <v>77.2098142355</v>
+        <v>772098.142355</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -760,7 +760,7 @@
         <v>8</v>
       </c>
       <c r="D15" t="n">
-        <v>34.716728787</v>
+        <v>347167.28787</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -780,7 +780,7 @@
         <v>8</v>
       </c>
       <c r="D16" t="n">
-        <v>527.5019660807</v>
+        <v>5275019.660807</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -800,7 +800,7 @@
         <v>8</v>
       </c>
       <c r="D17" t="n">
-        <v>43.0552196826</v>
+        <v>430552.196826</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
@@ -820,7 +820,7 @@
         <v>8</v>
       </c>
       <c r="D18" t="n">
-        <v>173.3774667582</v>
+        <v>1733774.667582</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
@@ -840,7 +840,7 @@
         <v>8</v>
       </c>
       <c r="D19" t="n">
-        <v>38.7389679545</v>
+        <v>387389.679545</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
@@ -860,7 +860,7 @@
         <v>8</v>
       </c>
       <c r="D20" t="n">
-        <v>1.4289284261</v>
+        <v>14289.284261</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
@@ -880,7 +880,7 @@
         <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>26.8862642708</v>
+        <v>268862.642708</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
@@ -900,7 +900,7 @@
         <v>8</v>
       </c>
       <c r="D22" t="n">
-        <v>7469.1253674561</v>
+        <v>74691253.674561</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
@@ -920,7 +920,7 @@
         <v>8</v>
       </c>
       <c r="D23" t="n">
-        <v>179.3980832796</v>
+        <v>1793980.832796</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
@@ -940,7 +940,7 @@
         <v>8</v>
       </c>
       <c r="D24" t="n">
-        <v>52.768095132</v>
+        <v>527680.95132</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
@@ -960,7 +960,7 @@
         <v>8</v>
       </c>
       <c r="D25" t="n">
-        <v>533.2786649808</v>
+        <v>5332786.649808</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -980,7 +980,7 @@
         <v>8</v>
       </c>
       <c r="D26" t="n">
-        <v>531.6803992571</v>
+        <v>5316803.992571</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
@@ -1000,7 +1000,7 @@
         <v>8</v>
       </c>
       <c r="D27" t="n">
-        <v>148.5751861986</v>
+        <v>1485751.861986</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
@@ -1020,7 +1020,7 @@
         <v>8</v>
       </c>
       <c r="D28" t="n">
-        <v>276.1575081854</v>
+        <v>2761575.081854</v>
       </c>
       <c r="E28" t="s">
         <v>9</v>
@@ -1058,7 +1058,7 @@
         <v>8</v>
       </c>
       <c r="D30" t="n">
-        <v>2.9953077032</v>
+        <v>29953.077032</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
@@ -1078,7 +1078,7 @@
         <v>8</v>
       </c>
       <c r="D31" t="n">
-        <v>42.0003365109</v>
+        <v>420003.365109</v>
       </c>
       <c r="E31" t="s">
         <v>9</v>
@@ -1098,7 +1098,7 @@
         <v>8</v>
       </c>
       <c r="D32" t="n">
-        <v>81.4958198952</v>
+        <v>814958.198952</v>
       </c>
       <c r="E32" t="s">
         <v>9</v>
@@ -1118,7 +1118,7 @@
         <v>8</v>
       </c>
       <c r="D33" t="n">
-        <v>90.276028835</v>
+        <v>902760.28835</v>
       </c>
       <c r="E33" t="s">
         <v>9</v>
